--- a/GB Accounts 2025-26/GB Accounts Company 2026-03-31 (Mar26) Excel 2007/Vatreturns.xlsx
+++ b/GB Accounts 2025-26/GB Accounts Company 2026-03-31 (Mar26) Excel 2007/Vatreturns.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony/projects/diy-accounting/GB Accounts 2024-25/GB Accounts Company 2025-03-31 (Mar25) Excel 2007/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony/projects/diy-accounting/GB Accounts 2025-26/GB Accounts Company 2026-03-31 (Mar26) Excel 2007/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BFF026-C406-E549-9157-432E0141A1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770A265F-0EBF-3444-A1E4-41BC91A904A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27040" windowHeight="17000" tabRatio="910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1326,87 +1326,87 @@
       <sheetData sheetId="11">
         <row r="6">
           <cell r="B6">
-            <v>45351</v>
+            <v>45716</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8">
-            <v>45382</v>
+            <v>45747</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>45412</v>
+            <v>45777</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12">
-            <v>45443</v>
+            <v>45808</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>45473</v>
+            <v>45838</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16">
-            <v>45504</v>
+            <v>45869</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18">
-            <v>45535</v>
+            <v>45900</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20">
-            <v>45565</v>
+            <v>45930</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22">
-            <v>45596</v>
+            <v>45961</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24">
-            <v>45626</v>
+            <v>45991</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26">
-            <v>45657</v>
+            <v>46022</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28">
-            <v>45688</v>
+            <v>46053</v>
           </cell>
         </row>
         <row r="30">
           <cell r="B30">
-            <v>45716</v>
+            <v>46081</v>
           </cell>
         </row>
         <row r="32">
           <cell r="B32">
-            <v>45747</v>
+            <v>46112</v>
           </cell>
         </row>
         <row r="34">
           <cell r="B34">
-            <v>45777</v>
+            <v>46142</v>
           </cell>
         </row>
         <row r="36">
           <cell r="B36">
-            <v>45808</v>
+            <v>46173</v>
           </cell>
         </row>
         <row r="38">
           <cell r="B38">
-            <v>45838</v>
+            <v>46203</v>
           </cell>
         </row>
       </sheetData>
@@ -2114,7 +2114,7 @@
       <c r="I2" s="13"/>
       <c r="K2" s="69">
         <f>Vatinterface!B6</f>
-        <v>45412</v>
+        <v>45777</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2131,7 +2131,7 @@
       <c r="I3" s="13"/>
       <c r="K3" s="69">
         <f>Vatinterface!B7</f>
-        <v>45443</v>
+        <v>45808</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -2148,7 +2148,7 @@
       <c r="I4" s="13"/>
       <c r="K4" s="69">
         <f>Vatinterface!B8</f>
-        <v>45473</v>
+        <v>45838</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -2161,13 +2161,13 @@
       </c>
       <c r="F5" s="126"/>
       <c r="G5" s="42">
-        <v>45473</v>
+        <v>45838</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="13"/>
       <c r="K5" s="69">
         <f>Vatinterface!B9</f>
-        <v>45504</v>
+        <v>45869</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2182,7 +2182,7 @@
       <c r="I6" s="13"/>
       <c r="K6" s="69">
         <f>Vatinterface!B10</f>
-        <v>45535</v>
+        <v>45900</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2196,13 +2196,13 @@
       <c r="F7" s="128"/>
       <c r="G7" s="19">
         <f>LOOKUP(G$5,Vatinterface!B1:B20,Vatinterface!C1:C20)</f>
-        <v>45504</v>
+        <v>45869</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="13"/>
       <c r="K7" s="69">
         <f>Vatinterface!B11</f>
-        <v>45565</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2217,7 +2217,7 @@
       <c r="I8" s="13"/>
       <c r="K8" s="69">
         <f>Vatinterface!B12</f>
-        <v>45596</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2239,7 +2239,7 @@
       <c r="I9" s="13"/>
       <c r="K9" s="69">
         <f>Vatinterface!B13</f>
-        <v>45626</v>
+        <v>45991</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2254,7 +2254,7 @@
       <c r="I10" s="13"/>
       <c r="K10" s="69">
         <f>Vatinterface!B14</f>
-        <v>45657</v>
+        <v>46022</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2275,7 +2275,7 @@
       <c r="I11" s="13"/>
       <c r="K11" s="69">
         <f>Vatinterface!B15</f>
-        <v>45688</v>
+        <v>46053</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2290,7 +2290,7 @@
       <c r="I12" s="13"/>
       <c r="K12" s="69">
         <f>Vatinterface!B16</f>
-        <v>45716</v>
+        <v>46081</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2312,7 +2312,7 @@
       <c r="I13" s="13"/>
       <c r="K13" s="69">
         <f>Vatinterface!B17</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2327,7 +2327,7 @@
       <c r="I14" s="13"/>
       <c r="K14" s="69">
         <f>Vatinterface!B18</f>
-        <v>45777</v>
+        <v>46142</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2349,7 +2349,7 @@
       <c r="I15" s="13"/>
       <c r="K15" s="69">
         <f>Vatinterface!B19</f>
-        <v>45808</v>
+        <v>46173</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -13925,7 +13925,7 @@
       <c r="I2" s="13"/>
       <c r="K2" s="69">
         <f>Vatinterface!B6</f>
-        <v>45412</v>
+        <v>45777</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -13942,7 +13942,7 @@
       <c r="I3" s="13"/>
       <c r="K3" s="69">
         <f>Vatinterface!B7</f>
-        <v>45443</v>
+        <v>45808</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -13959,7 +13959,7 @@
       <c r="I4" s="13"/>
       <c r="K4" s="69">
         <f>Vatinterface!B8</f>
-        <v>45473</v>
+        <v>45838</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -13972,13 +13972,13 @@
       </c>
       <c r="F5" s="126"/>
       <c r="G5" s="42">
-        <v>45565</v>
+        <v>45930</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="13"/>
       <c r="K5" s="69">
         <f>Vatinterface!B9</f>
-        <v>45504</v>
+        <v>45869</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13993,7 +13993,7 @@
       <c r="I6" s="13"/>
       <c r="K6" s="69">
         <f>Vatinterface!B10</f>
-        <v>45535</v>
+        <v>45900</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14007,13 +14007,13 @@
       <c r="F7" s="128"/>
       <c r="G7" s="19">
         <f>LOOKUP(G$5,Vatinterface!B1:B20,Vatinterface!C1:C20)</f>
-        <v>45596</v>
+        <v>45961</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="13"/>
       <c r="K7" s="69">
         <f>Vatinterface!B11</f>
-        <v>45565</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14028,7 +14028,7 @@
       <c r="I8" s="13"/>
       <c r="K8" s="69">
         <f>Vatinterface!B12</f>
-        <v>45596</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14050,7 +14050,7 @@
       <c r="I9" s="13"/>
       <c r="K9" s="69">
         <f>Vatinterface!B13</f>
-        <v>45626</v>
+        <v>45991</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14065,7 +14065,7 @@
       <c r="I10" s="13"/>
       <c r="K10" s="69">
         <f>Vatinterface!B14</f>
-        <v>45657</v>
+        <v>46022</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14086,7 +14086,7 @@
       <c r="I11" s="13"/>
       <c r="K11" s="69">
         <f>Vatinterface!B15</f>
-        <v>45688</v>
+        <v>46053</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14101,7 +14101,7 @@
       <c r="I12" s="13"/>
       <c r="K12" s="69">
         <f>Vatinterface!B16</f>
-        <v>45716</v>
+        <v>46081</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14123,7 +14123,7 @@
       <c r="I13" s="13"/>
       <c r="K13" s="69">
         <f>Vatinterface!B17</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14138,7 +14138,7 @@
       <c r="I14" s="13"/>
       <c r="K14" s="69">
         <f>Vatinterface!B18</f>
-        <v>45777</v>
+        <v>46142</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14160,7 +14160,7 @@
       <c r="I15" s="13"/>
       <c r="K15" s="69">
         <f>Vatinterface!B19</f>
-        <v>45808</v>
+        <v>46173</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -14496,7 +14496,7 @@
       <c r="I2" s="13"/>
       <c r="K2" s="69">
         <f>Vatinterface!B6</f>
-        <v>45412</v>
+        <v>45777</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -14513,7 +14513,7 @@
       <c r="I3" s="13"/>
       <c r="K3" s="69">
         <f>Vatinterface!B7</f>
-        <v>45443</v>
+        <v>45808</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -14530,7 +14530,7 @@
       <c r="I4" s="13"/>
       <c r="K4" s="69">
         <f>Vatinterface!B8</f>
-        <v>45473</v>
+        <v>45838</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -14543,13 +14543,13 @@
       </c>
       <c r="F5" s="126"/>
       <c r="G5" s="42">
-        <v>45657</v>
+        <v>46022</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="13"/>
       <c r="K5" s="69">
         <f>Vatinterface!B9</f>
-        <v>45504</v>
+        <v>45869</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14564,7 +14564,7 @@
       <c r="I6" s="13"/>
       <c r="K6" s="69">
         <f>Vatinterface!B10</f>
-        <v>45535</v>
+        <v>45900</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14578,13 +14578,13 @@
       <c r="F7" s="128"/>
       <c r="G7" s="19">
         <f>LOOKUP(G$5,Vatinterface!B1:B20,Vatinterface!C1:C20)</f>
-        <v>45688</v>
+        <v>46053</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="13"/>
       <c r="K7" s="69">
         <f>Vatinterface!B11</f>
-        <v>45565</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14599,7 +14599,7 @@
       <c r="I8" s="13"/>
       <c r="K8" s="69">
         <f>Vatinterface!B12</f>
-        <v>45596</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14621,7 +14621,7 @@
       <c r="I9" s="13"/>
       <c r="K9" s="69">
         <f>Vatinterface!B13</f>
-        <v>45626</v>
+        <v>45991</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14636,7 +14636,7 @@
       <c r="I10" s="13"/>
       <c r="K10" s="69">
         <f>Vatinterface!B14</f>
-        <v>45657</v>
+        <v>46022</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14657,7 +14657,7 @@
       <c r="I11" s="13"/>
       <c r="K11" s="69">
         <f>Vatinterface!B15</f>
-        <v>45688</v>
+        <v>46053</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14672,7 +14672,7 @@
       <c r="I12" s="13"/>
       <c r="K12" s="69">
         <f>Vatinterface!B16</f>
-        <v>45716</v>
+        <v>46081</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14694,7 +14694,7 @@
       <c r="I13" s="13"/>
       <c r="K13" s="69">
         <f>Vatinterface!B17</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14709,7 +14709,7 @@
       <c r="I14" s="13"/>
       <c r="K14" s="69">
         <f>Vatinterface!B18</f>
-        <v>45777</v>
+        <v>46142</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14731,7 +14731,7 @@
       <c r="I15" s="13"/>
       <c r="K15" s="69">
         <f>Vatinterface!B19</f>
-        <v>45808</v>
+        <v>46173</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -15067,7 +15067,7 @@
       <c r="I2" s="13"/>
       <c r="K2" s="69">
         <f>Vatinterface!B6</f>
-        <v>45412</v>
+        <v>45777</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -15084,7 +15084,7 @@
       <c r="I3" s="13"/>
       <c r="K3" s="69">
         <f>Vatinterface!B7</f>
-        <v>45443</v>
+        <v>45808</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -15101,7 +15101,7 @@
       <c r="I4" s="13"/>
       <c r="K4" s="69">
         <f>Vatinterface!B8</f>
-        <v>45473</v>
+        <v>45838</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -15114,13 +15114,13 @@
       </c>
       <c r="F5" s="126"/>
       <c r="G5" s="42">
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="13"/>
       <c r="K5" s="69">
         <f>Vatinterface!B9</f>
-        <v>45504</v>
+        <v>45869</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -15135,7 +15135,7 @@
       <c r="I6" s="13"/>
       <c r="K6" s="69">
         <f>Vatinterface!B10</f>
-        <v>45535</v>
+        <v>45900</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15149,13 +15149,13 @@
       <c r="F7" s="128"/>
       <c r="G7" s="19">
         <f>LOOKUP(G$5,Vatinterface!B1:B20,Vatinterface!C1:C20)</f>
-        <v>45777</v>
+        <v>46142</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="13"/>
       <c r="K7" s="69">
         <f>Vatinterface!B11</f>
-        <v>45565</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15170,7 +15170,7 @@
       <c r="I8" s="13"/>
       <c r="K8" s="69">
         <f>Vatinterface!B12</f>
-        <v>45596</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15192,7 +15192,7 @@
       <c r="I9" s="13"/>
       <c r="K9" s="69">
         <f>Vatinterface!B13</f>
-        <v>45626</v>
+        <v>45991</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15207,7 +15207,7 @@
       <c r="I10" s="13"/>
       <c r="K10" s="69">
         <f>Vatinterface!B14</f>
-        <v>45657</v>
+        <v>46022</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15228,7 +15228,7 @@
       <c r="I11" s="13"/>
       <c r="K11" s="69">
         <f>Vatinterface!B15</f>
-        <v>45688</v>
+        <v>46053</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15243,7 +15243,7 @@
       <c r="I12" s="13"/>
       <c r="K12" s="69">
         <f>Vatinterface!B16</f>
-        <v>45716</v>
+        <v>46081</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15265,7 +15265,7 @@
       <c r="I13" s="13"/>
       <c r="K13" s="69">
         <f>Vatinterface!B17</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15280,7 +15280,7 @@
       <c r="I14" s="13"/>
       <c r="K14" s="69">
         <f>Vatinterface!B18</f>
-        <v>45777</v>
+        <v>46142</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15302,7 +15302,7 @@
       <c r="I15" s="13"/>
       <c r="K15" s="69">
         <f>Vatinterface!B19</f>
-        <v>45808</v>
+        <v>46173</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -15638,7 +15638,7 @@
       <c r="I2" s="13"/>
       <c r="K2" s="69">
         <f>Vatinterface!B6</f>
-        <v>45412</v>
+        <v>45777</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -15655,7 +15655,7 @@
       <c r="I3" s="13"/>
       <c r="K3" s="69">
         <f>Vatinterface!B7</f>
-        <v>45443</v>
+        <v>45808</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -15672,7 +15672,7 @@
       <c r="I4" s="13"/>
       <c r="K4" s="69">
         <f>Vatinterface!B8</f>
-        <v>45473</v>
+        <v>45838</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -15685,13 +15685,13 @@
       </c>
       <c r="F5" s="126"/>
       <c r="G5" s="42">
-        <v>45777</v>
+        <v>46142</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="13"/>
       <c r="K5" s="69">
         <f>Vatinterface!B9</f>
-        <v>45504</v>
+        <v>45869</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -15706,7 +15706,7 @@
       <c r="I6" s="13"/>
       <c r="K6" s="69">
         <f>Vatinterface!B10</f>
-        <v>45535</v>
+        <v>45900</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15720,13 +15720,13 @@
       <c r="F7" s="128"/>
       <c r="G7" s="19">
         <f>LOOKUP(G$5,Vatinterface!B1:B20,Vatinterface!C1:C20)</f>
-        <v>45808</v>
+        <v>46173</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="13"/>
       <c r="K7" s="69">
         <f>Vatinterface!B11</f>
-        <v>45565</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15741,7 +15741,7 @@
       <c r="I8" s="13"/>
       <c r="K8" s="69">
         <f>Vatinterface!B12</f>
-        <v>45596</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15763,7 +15763,7 @@
       <c r="I9" s="13"/>
       <c r="K9" s="69">
         <f>Vatinterface!B13</f>
-        <v>45626</v>
+        <v>45991</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15778,7 +15778,7 @@
       <c r="I10" s="13"/>
       <c r="K10" s="69">
         <f>Vatinterface!B14</f>
-        <v>45657</v>
+        <v>46022</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15799,7 +15799,7 @@
       <c r="I11" s="13"/>
       <c r="K11" s="69">
         <f>Vatinterface!B15</f>
-        <v>45688</v>
+        <v>46053</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15814,7 +15814,7 @@
       <c r="I12" s="13"/>
       <c r="K12" s="69">
         <f>Vatinterface!B16</f>
-        <v>45716</v>
+        <v>46081</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15836,7 +15836,7 @@
       <c r="I13" s="13"/>
       <c r="K13" s="69">
         <f>Vatinterface!B17</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15851,7 +15851,7 @@
       <c r="I14" s="13"/>
       <c r="K14" s="69">
         <f>Vatinterface!B18</f>
-        <v>45777</v>
+        <v>46142</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15873,7 +15873,7 @@
       <c r="I15" s="13"/>
       <c r="K15" s="69">
         <f>Vatinterface!B19</f>
-        <v>45808</v>
+        <v>46173</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -16253,11 +16253,11 @@
       <c r="A4" s="56"/>
       <c r="B4" s="62">
         <f>[1]Admin!$B$6</f>
-        <v>45351</v>
+        <v>45716</v>
       </c>
       <c r="C4" s="62">
         <f>B5</f>
-        <v>45382</v>
+        <v>45747</v>
       </c>
       <c r="D4" s="104">
         <f>S02Y1!$H$1</f>
@@ -16290,11 +16290,11 @@
       <c r="A5" s="56"/>
       <c r="B5" s="62">
         <f>[1]Admin!$B$8</f>
-        <v>45382</v>
+        <v>45747</v>
       </c>
       <c r="C5" s="62">
         <f t="shared" ref="C5:C18" si="0">B6</f>
-        <v>45412</v>
+        <v>45777</v>
       </c>
       <c r="D5" s="104">
         <f>S03Y1!$H$1</f>
@@ -16327,11 +16327,11 @@
       <c r="A6" s="56"/>
       <c r="B6" s="62">
         <f>[1]Admin!$B$10</f>
-        <v>45412</v>
+        <v>45777</v>
       </c>
       <c r="C6" s="62">
         <f t="shared" si="0"/>
-        <v>45443</v>
+        <v>45808</v>
       </c>
       <c r="D6" s="104">
         <f>[2]Apr!$H$1</f>
@@ -16376,11 +16376,11 @@
       <c r="A7" s="56"/>
       <c r="B7" s="62">
         <f>[1]Admin!$B$12</f>
-        <v>45443</v>
+        <v>45808</v>
       </c>
       <c r="C7" s="62">
         <f t="shared" si="0"/>
-        <v>45473</v>
+        <v>45838</v>
       </c>
       <c r="D7" s="104">
         <f>[2]May!$H$1</f>
@@ -16425,11 +16425,11 @@
       <c r="A8" s="56"/>
       <c r="B8" s="62">
         <f>[1]Admin!$B$14</f>
-        <v>45473</v>
+        <v>45838</v>
       </c>
       <c r="C8" s="62">
         <f t="shared" si="0"/>
-        <v>45504</v>
+        <v>45869</v>
       </c>
       <c r="D8" s="104">
         <f>[2]Jun!$H$1</f>
@@ -16474,11 +16474,11 @@
       <c r="A9" s="56"/>
       <c r="B9" s="62">
         <f>[1]Admin!$B$16</f>
-        <v>45504</v>
+        <v>45869</v>
       </c>
       <c r="C9" s="62">
         <f t="shared" si="0"/>
-        <v>45535</v>
+        <v>45900</v>
       </c>
       <c r="D9" s="104">
         <f>[2]Jul!$H$1</f>
@@ -16523,11 +16523,11 @@
       <c r="A10" s="56"/>
       <c r="B10" s="62">
         <f>[1]Admin!$B$18</f>
-        <v>45535</v>
+        <v>45900</v>
       </c>
       <c r="C10" s="62">
         <f t="shared" si="0"/>
-        <v>45565</v>
+        <v>45930</v>
       </c>
       <c r="D10" s="104">
         <f>[2]Aug!$H$1</f>
@@ -16572,11 +16572,11 @@
       <c r="A11" s="56"/>
       <c r="B11" s="62">
         <f>[1]Admin!$B$20</f>
-        <v>45565</v>
+        <v>45930</v>
       </c>
       <c r="C11" s="62">
         <f t="shared" si="0"/>
-        <v>45596</v>
+        <v>45961</v>
       </c>
       <c r="D11" s="104">
         <f>[2]Sep!$H$1</f>
@@ -16621,11 +16621,11 @@
       <c r="A12" s="56"/>
       <c r="B12" s="62">
         <f>[1]Admin!$B$22</f>
-        <v>45596</v>
+        <v>45961</v>
       </c>
       <c r="C12" s="62">
         <f t="shared" si="0"/>
-        <v>45626</v>
+        <v>45991</v>
       </c>
       <c r="D12" s="104">
         <f>[2]Oct!$H$1</f>
@@ -16670,11 +16670,11 @@
       <c r="A13" s="56"/>
       <c r="B13" s="62">
         <f>[1]Admin!$B$24</f>
-        <v>45626</v>
+        <v>45991</v>
       </c>
       <c r="C13" s="62">
         <f t="shared" si="0"/>
-        <v>45657</v>
+        <v>46022</v>
       </c>
       <c r="D13" s="104">
         <f>[2]Nov!$H$1</f>
@@ -16719,11 +16719,11 @@
       <c r="A14" s="56"/>
       <c r="B14" s="62">
         <f>[1]Admin!$B$26</f>
-        <v>45657</v>
+        <v>46022</v>
       </c>
       <c r="C14" s="62">
         <f t="shared" si="0"/>
-        <v>45688</v>
+        <v>46053</v>
       </c>
       <c r="D14" s="104">
         <f>[2]Dec!$H$1</f>
@@ -16768,11 +16768,11 @@
       <c r="A15" s="56"/>
       <c r="B15" s="62">
         <f>[1]Admin!$B$28</f>
-        <v>45688</v>
+        <v>46053</v>
       </c>
       <c r="C15" s="62">
         <f t="shared" si="0"/>
-        <v>45716</v>
+        <v>46081</v>
       </c>
       <c r="D15" s="104">
         <f>[2]Jan!$H$1</f>
@@ -16817,11 +16817,11 @@
       <c r="A16" s="56"/>
       <c r="B16" s="62">
         <f>[1]Admin!$B$30</f>
-        <v>45716</v>
+        <v>46081</v>
       </c>
       <c r="C16" s="62">
         <f t="shared" si="0"/>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="D16" s="104">
         <f>[2]Feb!$H$1</f>
@@ -16866,11 +16866,11 @@
       <c r="A17" s="56"/>
       <c r="B17" s="62">
         <f>[1]Admin!$B$32</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="C17" s="62">
         <f t="shared" si="0"/>
-        <v>45777</v>
+        <v>46142</v>
       </c>
       <c r="D17" s="104">
         <f>[2]Mar!$H$1</f>
@@ -16915,11 +16915,11 @@
       <c r="A18" s="56"/>
       <c r="B18" s="62">
         <f>[1]Admin!$B$34</f>
-        <v>45777</v>
+        <v>46142</v>
       </c>
       <c r="C18" s="62">
         <f t="shared" si="0"/>
-        <v>45808</v>
+        <v>46173</v>
       </c>
       <c r="D18" s="104">
         <f>S04Y2!$H$1</f>
@@ -16964,11 +16964,11 @@
       <c r="A19" s="56"/>
       <c r="B19" s="62">
         <f>[1]Admin!$B$36</f>
-        <v>45808</v>
+        <v>46173</v>
       </c>
       <c r="C19" s="63">
         <f>[1]Admin!$B$38</f>
-        <v>45838</v>
+        <v>46203</v>
       </c>
       <c r="D19" s="104">
         <f>S05Y2!$H$1</f>
